--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2175.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2175.xlsx
@@ -354,7 +354,7 @@
         <v>1.969168433516442</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.861524825885104</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2175.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2175.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163935359330141</v>
+        <v>1.255537033081055</v>
       </c>
       <c r="B1">
-        <v>1.969168433516442</v>
+        <v>2.382030963897705</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.861524825885104</v>
+        <v>1.395228147506714</v>
       </c>
       <c r="E1">
-        <v>0.8163245558561592</v>
+        <v>0.8727909326553345</v>
       </c>
     </row>
   </sheetData>
